--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem3/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem3/123/word_level_predictions_123.xlsx
@@ -29,12 +29,17 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6B6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -600,210 +606,210 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Impact detected Aircraft stopped Restart aircraft .</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>Impact detected Aircraft stopped Restart aircraft .</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>stopped</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Impact detected Aircraft stopped Restart aircraft .</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Restart</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Impact detected Aircraft stopped Restart aircraft .</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Impact detected Aircraft stopped Restart aircraft .</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Restart</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Impact detected Aircraft stopped Restart aircraft .</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1773,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1791,265 +1797,265 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="A27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="A28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>motor</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" t="inlineStr">
+      <c r="A29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" t="inlineStr">
+      <c r="A30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" t="inlineStr">
+      <c r="A31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>exist</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="G31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem3/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem3/123/word_level_predictions_123.xlsx
@@ -29,17 +29,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFB6B6"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -60,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -606,210 +600,210 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" t="n">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Impact detected Aircraft stopped Restart aircraft .</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="b">
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="b">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Impact detected Aircraft stopped Restart aircraft .</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>stopped</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>0</v>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Impact detected Aircraft stopped Restart aircraft .</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Restart</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Impact detected Aircraft stopped Restart aircraft .</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>stopped</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Impact detected Aircraft stopped Restart aircraft .</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Restart</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Impact detected Aircraft stopped Restart aircraft .</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1773,289 +1767,289 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>18</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>motor</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>19</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>may</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>21</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>exist</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>22</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>motor</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>may</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>exist</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
